--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9182719533706</v>
+        <v>132.0764732210921</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0808318864817</v>
+        <v>180.7128574637823</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.9025910889377</v>
+        <v>163.4658759795779</v>
       </c>
       <c r="AD2" t="n">
-        <v>100918.2719533707</v>
+        <v>132076.4732210921</v>
       </c>
       <c r="AE2" t="n">
-        <v>138080.8318864818</v>
+        <v>180712.8574637822</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.160673652560859e-06</v>
+        <v>5.343275630273634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>124902.5910889377</v>
+        <v>163465.8759795779</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.42729252550161</v>
+        <v>113.5001529386515</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.7806580688454</v>
+        <v>155.2959165239483</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0170303514316</v>
+        <v>140.474692210133</v>
       </c>
       <c r="AD3" t="n">
-        <v>82427.29252550162</v>
+        <v>113500.1529386515</v>
       </c>
       <c r="AE3" t="n">
-        <v>112780.6580688454</v>
+        <v>155295.9165239483</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.773388248083512e-06</v>
+        <v>6.379100054575258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.373263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>102017.0303514316</v>
+        <v>140474.692210133</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.63744964719389</v>
+        <v>100.4665075649063</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.9634719635654</v>
+        <v>137.4627079197469</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.56415113058395</v>
+        <v>124.3434600060455</v>
       </c>
       <c r="AD4" t="n">
-        <v>79637.44964719389</v>
+        <v>100466.5075649063</v>
       </c>
       <c r="AE4" t="n">
-        <v>108963.4719635654</v>
+        <v>137462.707919747</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.989997446043522e-06</v>
+        <v>6.745288651052176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>98564.15113058395</v>
+        <v>124343.4600060455</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.38206738257583</v>
+        <v>100.2111253002882</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.6140466824448</v>
+        <v>137.1132826386263</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.24807450787191</v>
+        <v>124.0273833833334</v>
       </c>
       <c r="AD5" t="n">
-        <v>79382.06738257583</v>
+        <v>100211.1253002882</v>
       </c>
       <c r="AE5" t="n">
-        <v>108614.0466824448</v>
+        <v>137113.2826386263</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.990184178110728e-06</v>
+        <v>6.745604330876724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>98248.0745078719</v>
+        <v>124027.3833833334</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.1018570891914</v>
+        <v>112.3735606207714</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.3353829476878</v>
+        <v>153.7544632128802</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6142516628896</v>
+        <v>139.0803530396294</v>
       </c>
       <c r="AD2" t="n">
-        <v>82101.8570891914</v>
+        <v>112373.5606207714</v>
       </c>
       <c r="AE2" t="n">
-        <v>112335.3829476878</v>
+        <v>153754.4632128802</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.637737221968432e-06</v>
+        <v>6.299800608591464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>101614.2516628896</v>
+        <v>139080.3530396294</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.14813526686359</v>
+        <v>96.33449794387198</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.50679692185683</v>
+        <v>131.8091100648516</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.86895525074404</v>
+        <v>119.2294335955451</v>
       </c>
       <c r="AD3" t="n">
-        <v>66148.1352668636</v>
+        <v>96334.49794387197</v>
       </c>
       <c r="AE3" t="n">
-        <v>90506.79692185683</v>
+        <v>131809.1100648516</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.199577143382286e-06</v>
+        <v>7.272789932140986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.991319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>81868.95525074404</v>
+        <v>119229.4335955451</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.32800908280169</v>
+        <v>95.51437175981005</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.38466409541019</v>
+        <v>130.6869772384049</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.85391720632978</v>
+        <v>118.2143955511308</v>
       </c>
       <c r="AD4" t="n">
-        <v>65328.00908280168</v>
+        <v>95514.37175981005</v>
       </c>
       <c r="AE4" t="n">
-        <v>89384.66409541019</v>
+        <v>130686.977238405</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.27834290853838e-06</v>
+        <v>7.409195775935836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80853.91720632979</v>
+        <v>118214.3955511308</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.89299005355146</v>
+        <v>84.15374603712556</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.84349893281966</v>
+        <v>115.1428679292016</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.41422464872618</v>
+        <v>104.1537942180985</v>
       </c>
       <c r="AD2" t="n">
-        <v>56892.99005355146</v>
+        <v>84153.74603712556</v>
       </c>
       <c r="AE2" t="n">
-        <v>77843.49893281965</v>
+        <v>115142.8679292016</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.866937062520211e-06</v>
+        <v>9.209292237109768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>70414.22464872617</v>
+        <v>104153.7942180985</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.74720964852327</v>
+        <v>89.15176113086865</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.11701221882542</v>
+        <v>121.9813726773215</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.1844412281396</v>
+        <v>110.3396416709617</v>
       </c>
       <c r="AD2" t="n">
-        <v>60747.20964852328</v>
+        <v>89151.76113086865</v>
       </c>
       <c r="AE2" t="n">
-        <v>83117.01221882542</v>
+        <v>121981.3726773215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.566909427086342e-06</v>
+        <v>8.319917158600869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75184.44122813961</v>
+        <v>110339.6416709617</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.07063799846302</v>
+        <v>88.47518948080838</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.19129703897883</v>
+        <v>121.0556574974749</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.34707500580785</v>
+        <v>109.5022754486299</v>
       </c>
       <c r="AD3" t="n">
-        <v>60070.63799846302</v>
+        <v>88475.18948080839</v>
       </c>
       <c r="AE3" t="n">
-        <v>82191.29703897882</v>
+        <v>121055.6574974749</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.660503566913577e-06</v>
+        <v>8.49042535507936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>74347.07500580786</v>
+        <v>109502.2754486299</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.58047079733236</v>
+        <v>80.90307984396233</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.67940806531298</v>
+        <v>110.6951630344467</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.5521101727839</v>
+        <v>100.1305720361046</v>
       </c>
       <c r="AD2" t="n">
-        <v>54580.47079733236</v>
+        <v>80903.07984396233</v>
       </c>
       <c r="AE2" t="n">
-        <v>74679.40806531298</v>
+        <v>110695.1630344467</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959187833781588e-06</v>
+        <v>9.718410301572607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67552.1101727839</v>
+        <v>100130.5720361046</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.31549043280967</v>
+        <v>124.8476346837302</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.3641737470356</v>
+        <v>170.8220416631202</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3539789192831</v>
+        <v>154.5190257570807</v>
       </c>
       <c r="AD2" t="n">
-        <v>84315.49043280967</v>
+        <v>124847.6346837302</v>
       </c>
       <c r="AE2" t="n">
-        <v>115364.1737470356</v>
+        <v>170822.0416631202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.491394289383684e-06</v>
+        <v>6.006878262121845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>104353.9789192831</v>
+        <v>154519.0257570807</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.97833258326217</v>
+        <v>98.32983507184512</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.6933948016162</v>
+        <v>134.5392183514045</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.51072694689712</v>
+        <v>121.6989841789613</v>
       </c>
       <c r="AD3" t="n">
-        <v>77978.33258326218</v>
+        <v>98329.83507184513</v>
       </c>
       <c r="AE3" t="n">
-        <v>106693.3948016162</v>
+        <v>134539.2183514045</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.077548810664625e-06</v>
+        <v>7.015346100553368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.095486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>96510.72694689712</v>
+        <v>121698.9841789613</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.28935258043191</v>
+        <v>96.73113119590813</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.70001668034907</v>
+        <v>132.3518011785114</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.04373438667146</v>
+        <v>119.7203310309891</v>
       </c>
       <c r="AD4" t="n">
-        <v>66289.35258043191</v>
+        <v>96731.13119590814</v>
       </c>
       <c r="AE4" t="n">
-        <v>90700.01668034907</v>
+        <v>132351.8011785113</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.192243181781163e-06</v>
+        <v>7.212675610641236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>82043.73438667147</v>
+        <v>119720.3310309891</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.97648661244579</v>
+        <v>79.21152708683915</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.79896319273553</v>
+        <v>108.3807059261112</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.70586916173328</v>
+        <v>98.03700346582687</v>
       </c>
       <c r="AD2" t="n">
-        <v>61976.48661244579</v>
+        <v>79211.52708683915</v>
       </c>
       <c r="AE2" t="n">
-        <v>84798.96319273552</v>
+        <v>108380.7059261112</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.954634533040195e-06</v>
+        <v>9.932359528950098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>76705.86916173328</v>
+        <v>98037.00346582687</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.33734951986892</v>
+        <v>105.6095125522212</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.4481293792193</v>
+        <v>144.4995942367543</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.47974650516325</v>
+        <v>130.7087557692919</v>
       </c>
       <c r="AD2" t="n">
-        <v>76337.34951986892</v>
+        <v>105609.5125522212</v>
       </c>
       <c r="AE2" t="n">
-        <v>104448.1293792193</v>
+        <v>144499.5942367543</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041983917540465e-06</v>
+        <v>7.158653865258406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>94479.74650516325</v>
+        <v>130708.7557692919</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.64322418178845</v>
+        <v>92.00063856016129</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.71122294949529</v>
+        <v>125.8793324596796</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.53106412767279</v>
+        <v>113.8655856425137</v>
       </c>
       <c r="AD3" t="n">
-        <v>62643.22418178845</v>
+        <v>92000.63856016129</v>
       </c>
       <c r="AE3" t="n">
-        <v>85711.22294949529</v>
+        <v>125879.3324596796</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485738870068127e-06</v>
+        <v>7.944576860239722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>77531.0641276728</v>
+        <v>113865.5856425137</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.34453281093327</v>
+        <v>110.3511078924098</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9309343425008</v>
+        <v>150.9872541656201</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.43928025791598</v>
+        <v>136.5772425400366</v>
       </c>
       <c r="AD2" t="n">
-        <v>80344.53281093328</v>
+        <v>110351.1078924098</v>
       </c>
       <c r="AE2" t="n">
-        <v>109930.9343425008</v>
+        <v>150987.2541656201</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.749317511504094e-06</v>
+        <v>6.538482352641149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>99439.28025791598</v>
+        <v>136577.2425400366</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.94638919602382</v>
+        <v>94.8676234229287</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.86251493043979</v>
+        <v>129.8020676313615</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.38160122482303</v>
+        <v>117.4139404750048</v>
       </c>
       <c r="AD3" t="n">
-        <v>64946.38919602381</v>
+        <v>94867.62342292871</v>
       </c>
       <c r="AE3" t="n">
-        <v>88862.51493043979</v>
+        <v>129802.0676313615</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.291508804882323e-06</v>
+        <v>7.484016624580433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>80381.60122482303</v>
+        <v>117413.9404750049</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.58301218480507</v>
+        <v>94.50424641170996</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.36532647262823</v>
+        <v>129.3048791735499</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.93186373561646</v>
+        <v>116.9642029857983</v>
       </c>
       <c r="AD4" t="n">
-        <v>64583.01218480507</v>
+        <v>94504.24641170996</v>
       </c>
       <c r="AE4" t="n">
-        <v>88365.32647262822</v>
+        <v>129304.8791735499</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.329851964729643e-06</v>
+        <v>7.550883747259948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>79931.86373561645</v>
+        <v>116964.2029857983</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.85872675850801</v>
+        <v>129.7857513840351</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.2628712901507</v>
+        <v>177.5785907868074</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.3535726968871</v>
+        <v>160.6307393152816</v>
       </c>
       <c r="AD2" t="n">
-        <v>98858.72675850801</v>
+        <v>129785.7513840351</v>
       </c>
       <c r="AE2" t="n">
-        <v>135262.8712901507</v>
+        <v>177578.5907868074</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.257489147035732e-06</v>
+        <v>5.537515655376215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.267361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>122353.5726968871</v>
+        <v>160630.7393152816</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.81866410314662</v>
+        <v>101.4936042593961</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.5796616937031</v>
+        <v>138.8680269294554</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.0260939812143</v>
+        <v>125.6146573418454</v>
       </c>
       <c r="AD3" t="n">
-        <v>80818.66410314661</v>
+        <v>101493.6042593961</v>
       </c>
       <c r="AE3" t="n">
-        <v>110579.6616937031</v>
+        <v>138868.0269294554</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.881289695643964e-06</v>
+        <v>6.597935244768778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100026.0939812143</v>
+        <v>125614.6573418454</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.45791531291583</v>
+        <v>99.13285546916531</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.3495810500248</v>
+        <v>135.6379462857771</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.104287700721</v>
+        <v>122.692851061352</v>
       </c>
       <c r="AD4" t="n">
-        <v>78457.91531291584</v>
+        <v>99132.85546916531</v>
       </c>
       <c r="AE4" t="n">
-        <v>107349.5810500248</v>
+        <v>135637.9462857771</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068643965947865e-06</v>
+        <v>6.916425087122826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.017361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>97104.287700721</v>
+        <v>122692.851061352</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.47155768158697</v>
+        <v>99.14649783783645</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.3682471406994</v>
+        <v>135.6566123764517</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.12117232589969</v>
+        <v>122.7097356865307</v>
       </c>
       <c r="AD5" t="n">
-        <v>78471.55768158697</v>
+        <v>99146.49783783645</v>
       </c>
       <c r="AE5" t="n">
-        <v>107368.2471406994</v>
+        <v>135656.6123764517</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.069232168479273e-06</v>
+        <v>6.917424992442288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.017361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>97121.17232589969</v>
+        <v>122709.7356865307</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.38791321206</v>
+        <v>91.60429544291877</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.04433638604493</v>
+        <v>125.3370383212443</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.59168393098463</v>
+        <v>113.3750472955359</v>
       </c>
       <c r="AD2" t="n">
-        <v>72387.91321206</v>
+        <v>91604.29544291877</v>
       </c>
       <c r="AE2" t="n">
-        <v>99044.33638604493</v>
+        <v>125337.0383212444</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.38334911560948e-06</v>
+        <v>7.904215730926425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>89591.68393098463</v>
+        <v>113375.0472955359</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.87923201854804</v>
+        <v>89.61833024743801</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.29765104990911</v>
+        <v>122.619753126188</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.34784014271291</v>
+        <v>110.9170959857612</v>
       </c>
       <c r="AD3" t="n">
-        <v>60879.23201854803</v>
+        <v>89618.330247438</v>
       </c>
       <c r="AE3" t="n">
-        <v>83297.65104990911</v>
+        <v>122619.753126188</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.617931396626954e-06</v>
+        <v>8.327223095138414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>75347.84014271291</v>
+        <v>110917.0959857612</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.85278872380274</v>
+        <v>85.52260936765947</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.15673781678566</v>
+        <v>117.0158071280251</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.60212985674923</v>
+        <v>105.8479827284736</v>
       </c>
       <c r="AD2" t="n">
-        <v>57852.78872380274</v>
+        <v>85522.60936765948</v>
       </c>
       <c r="AE2" t="n">
-        <v>79156.73781678567</v>
+        <v>117015.8071280251</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.838167365466014e-06</v>
+        <v>9.026473818896515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>71602.12985674923</v>
+        <v>105847.9827284736</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.95607450177715</v>
+        <v>85.62589514563389</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.29805797485713</v>
+        <v>117.1571272860966</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.72996261727847</v>
+        <v>105.9758154890028</v>
       </c>
       <c r="AD3" t="n">
-        <v>57956.07450177715</v>
+        <v>85625.89514563388</v>
       </c>
       <c r="AE3" t="n">
-        <v>79298.05797485713</v>
+        <v>117157.1272860966</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.834959119581848e-06</v>
+        <v>9.02048825756916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>71729.96261727848</v>
+        <v>105975.8154890028</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.74030481480197</v>
+        <v>82.55543189970807</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.26634413627966</v>
+        <v>112.9559840137448</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.98759129241681</v>
+        <v>102.1756234342214</v>
       </c>
       <c r="AD2" t="n">
-        <v>55740.30481480197</v>
+        <v>82555.43189970807</v>
       </c>
       <c r="AE2" t="n">
-        <v>76266.34413627966</v>
+        <v>112955.9840137448</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.937772605846809e-06</v>
+        <v>9.495519831465918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68987.59129241681</v>
+        <v>102175.6234342214</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.37317671146055</v>
+        <v>77.17739972021664</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.60524385316786</v>
+        <v>105.5975231237337</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.72151531702885</v>
+        <v>95.51944372388584</v>
       </c>
       <c r="AD2" t="n">
-        <v>60373.17671146055</v>
+        <v>77177.39972021664</v>
       </c>
       <c r="AE2" t="n">
-        <v>82605.24385316786</v>
+        <v>105597.5231237337</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857627934470295e-06</v>
+        <v>1.001934008107113e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>74721.51531702884</v>
+        <v>95519.44372388584</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.3352271213499</v>
+        <v>107.8953128313195</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1817136537034</v>
+        <v>147.6271270210063</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.95244133310106</v>
+        <v>133.5378012141356</v>
       </c>
       <c r="AD2" t="n">
-        <v>78335.2271213499</v>
+        <v>107895.3128313195</v>
       </c>
       <c r="AE2" t="n">
-        <v>107181.7136537034</v>
+        <v>147627.1270210063</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899723799120291e-06</v>
+        <v>6.851660879624524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.477430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>96952.44133310106</v>
+        <v>133537.8012141356</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.70383254387833</v>
+        <v>93.34916959986847</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.16239410124454</v>
+        <v>127.7244521211967</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.84373754143108</v>
+        <v>115.5346096731779</v>
       </c>
       <c r="AD3" t="n">
-        <v>63703.83254387834</v>
+        <v>93349.16959986847</v>
       </c>
       <c r="AE3" t="n">
-        <v>87162.39410124454</v>
+        <v>127724.4521211967</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.386912308487543e-06</v>
+        <v>7.707631872079732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>78843.73754143108</v>
+        <v>115534.6096731779</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.77988261994628</v>
+        <v>93.42521967593642</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.26644917041322</v>
+        <v>127.8285071903654</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.93786174084055</v>
+        <v>115.6287338725873</v>
       </c>
       <c r="AD4" t="n">
-        <v>63779.88261994628</v>
+        <v>93425.21967593642</v>
       </c>
       <c r="AE4" t="n">
-        <v>87266.44917041322</v>
+        <v>127828.5071903654</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.3797727527891e-06</v>
+        <v>7.695087954357159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.878472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>78937.86174084054</v>
+        <v>115628.7338725873</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.4284148076638</v>
+        <v>127.1168837788895</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9376112612112</v>
+        <v>173.92692838732</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3456708180767</v>
+        <v>157.3275864500598</v>
       </c>
       <c r="AD2" t="n">
-        <v>96428.41480766379</v>
+        <v>127116.8837788895</v>
       </c>
       <c r="AE2" t="n">
-        <v>131937.6112612112</v>
+        <v>173926.92838732</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391531248554655e-06</v>
+        <v>5.799140474661634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>119345.6708180767</v>
+        <v>157327.5864500598</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.5869624002988</v>
+        <v>100.1028654536807</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.8943930850235</v>
+        <v>136.9651567404106</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.5016650432572</v>
+        <v>123.8933944129474</v>
       </c>
       <c r="AD3" t="n">
-        <v>79586.9624002988</v>
+        <v>100102.8654536807</v>
       </c>
       <c r="AE3" t="n">
-        <v>108894.3930850234</v>
+        <v>136965.1567404106</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.953049957569409e-06</v>
+        <v>6.759274890086799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98501.66504325721</v>
+        <v>123893.3944129474</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.96186041370288</v>
+        <v>97.65023987637751</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.62017156678162</v>
+        <v>133.6093662233421</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.87607098218868</v>
+        <v>120.8578758329453</v>
       </c>
       <c r="AD4" t="n">
-        <v>66961.86041370287</v>
+        <v>97650.23987637751</v>
       </c>
       <c r="AE4" t="n">
-        <v>91620.17156678162</v>
+        <v>133609.3662233421</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.150550623104404e-06</v>
+        <v>7.096979018204357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>82876.07098218868</v>
+        <v>120857.8758329453</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.60225059292141</v>
+        <v>83.01603599316284</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.18218461003748</v>
+        <v>113.5862028548278</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.52970944727704</v>
+        <v>102.7456950736293</v>
       </c>
       <c r="AD2" t="n">
-        <v>58602.25059292142</v>
+        <v>83016.03599316285</v>
       </c>
       <c r="AE2" t="n">
-        <v>80182.18461003748</v>
+        <v>113586.2028548278</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.50238121719166e-06</v>
+        <v>9.650676702284039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.876736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>72529.70944727704</v>
+        <v>102745.6950736293</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.13983907388737</v>
+        <v>87.18923014455356</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.91773688642465</v>
+        <v>119.2961512010899</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.19506164676015</v>
+        <v>107.9106939636888</v>
       </c>
       <c r="AD2" t="n">
-        <v>59139.83907388736</v>
+        <v>87189.23014455356</v>
       </c>
       <c r="AE2" t="n">
-        <v>80917.73688642465</v>
+        <v>119296.1512010899</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72832451068276e-06</v>
+        <v>8.711618915011745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>73195.06164676015</v>
+        <v>107910.6939636888</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.95562453881563</v>
+        <v>87.00501560948182</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.66568643256792</v>
+        <v>119.0441007472332</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.96706653446439</v>
+        <v>107.6826988513931</v>
       </c>
       <c r="AD3" t="n">
-        <v>58955.62453881563</v>
+        <v>87005.01560948182</v>
       </c>
       <c r="AE3" t="n">
-        <v>80665.68643256792</v>
+        <v>119044.1007472332</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.763283720019733e-06</v>
+        <v>8.776028899695698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>72967.06653446439</v>
+        <v>107682.6988513931</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.34155318496755</v>
+        <v>93.76917117532308</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7173927854884</v>
+        <v>128.2991168058952</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.00962757932432</v>
+        <v>116.0544291669159</v>
       </c>
       <c r="AD2" t="n">
-        <v>74341.55318496755</v>
+        <v>93769.17117532308</v>
       </c>
       <c r="AE2" t="n">
-        <v>101717.3927854884</v>
+        <v>128299.1168058952</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.213089109418275e-06</v>
+        <v>7.526376229976636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92009.62757932431</v>
+        <v>116054.4291669159</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.70006285290992</v>
+        <v>90.75601472104503</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.42074800998313</v>
+        <v>124.1763832140731</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.36375030519432</v>
+        <v>112.325163482803</v>
       </c>
       <c r="AD3" t="n">
-        <v>61700.06285290992</v>
+        <v>90756.01472104504</v>
       </c>
       <c r="AE3" t="n">
-        <v>84420.74800998313</v>
+        <v>124176.3832140731</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.553520172749384e-06</v>
+        <v>8.134531480544007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76363.75030519432</v>
+        <v>112325.163482803</v>
       </c>
     </row>
   </sheetData>
